--- a/data/long_razon/P18_5-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_5-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-73,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>41,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-69,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>113,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-71,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>75,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-80,17; -65,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 86,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 20,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-76,24; -61,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,75; 164,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 32,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-76,34; -66,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,78; 108,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 18,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-59,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-65,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-63,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,95; -47,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,12; 148,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 32,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,49; -55,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,37; 84,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 20,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,51; -55,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,6; 100,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 18,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-47,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-56,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-52,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>56,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-69,62; -13,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 183,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,05; 210,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-73,43; -26,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 139,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 54,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,71; -30,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 137,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 102,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-65,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-66,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>68,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,92; -59,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,63; 94,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 27,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,79; -60,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,37; 103,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 16,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,6; -62,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,62; 88,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 17,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_5-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_5-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.7339058030427216</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.391070389370403</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.02350719262748789</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.01368712598599558</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.6853394037106015</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.160541164313132</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.09979816460502385</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.3375008312046536</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.7088637337081095</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.7492521498374147</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.04138055132548583</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.1588167714916589</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.7969405406913042</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.01377470440969424</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2287238545993762</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.2664751064756909</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.749407035680571</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.7320522598389518</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.07104728923951448</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.06029878028879323</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.7572636552044546</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.4588668444152383</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1090363226315473</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.06340271111985875</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.6594557511044395</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.7942413694467046</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2488386224084077</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.3337919317868113</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.6048452238615629</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.72143674942919</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.34928650728477</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.7155297145510949</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.6539307030883699</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.068232290828776</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1940521035268098</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.3700105774349012</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.5671456816073032</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8884034201393705</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.02168091953720104</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2070070839808917</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.6653828855523376</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.48291536241918</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.02210862337294061</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.03149511260194614</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.6211147746271458</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.6536682131509008</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.0002778818508911227</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.07042536858434852</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6787863407954828</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4015481325363554</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.194682470948479</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.106380050417134</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.7454494030622926</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.1698222614817768</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2064951056038061</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2229838377380219</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.6846249731867408</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.3761119061562092</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1523523587474969</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.1204758008799158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.4307705461889394</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.56998019866181</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2924947716621367</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.670787271748854</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.5459642762104079</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.8778017585102657</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.22335703409157</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2519917911869197</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.5266638472770326</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.9922451969934201</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.1892568374229162</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.3290827069591431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.5529491379447811</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.60301159155303</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.885567329443783</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.4153971550373514</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.5827706862141394</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.487182323476467</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.09760301410051858</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1315302392996635</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.5684987066737183</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.543957022089539</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.3629259522612595</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.1809860196891097</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.7512271756792679</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.05297235599063734</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2339549099031031</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.785636795505036</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.739008092926806</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.0198803792533165</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4377235490773848</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.324662180087659</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.7073250557116155</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.08974935535968785</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.01561286607946488</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.5000540396119991</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.2107611490608977</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.690117118417425</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.165623017243636</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.2101637916625921</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.2927541902998076</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.294706412522118</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4424472975634838</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.9438699841921284</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.4100726366861845</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.261781251804735</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.8823889204443409</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.2855594510744486</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.6537734124041027</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5918960055423141</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.08196675610051282</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.001594383578818204</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.666586783525003</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.7702454579340606</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.03210395414453613</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1455836805174493</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.6605516830625949</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.6840122489518817</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.05646095874057677</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.07591595808396448</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.7106176986831595</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3043461293135441</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.07903397905505782</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1898722577654322</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.7192705421327051</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.5224488030902791</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.09516960624074265</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.01786963470340678</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.6983116710282394</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.4842978379232997</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.04250159616608454</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.0671524325557816</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.5877335300559339</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9513110681580246</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2699225167680001</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.27014898279917</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.6021603163584749</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.063745753105028</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.1807527344095808</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.345242263414783</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.616354780747934</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.8937539648616258</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.1788933612043677</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.2357647766281702</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
